--- a/media/exportfiles/category_courses.xlsx
+++ b/media/exportfiles/category_courses.xlsx
@@ -310,10 +310,10 @@
     <t xml:space="preserve">PHP.svg</t>
   </si>
   <si>
+    <t xml:space="preserve">PHP Basics</t>
+  </si>
+  <si>
     <t xml:space="preserve">3020-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP Basics</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel</t>
@@ -499,6 +499,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -737,11 +738,15 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.74"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1805,7 +1810,7 @@
         <v>3020</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D49" s="4" t="str">
         <f aca="false">IF(A49=1,"-",IF(A49=2,LEFT(B49,2),IF(A49=3,LEFT(B49,3),IF(A49=4,LEFT(B49,4)))))</f>
@@ -1813,7 +1818,7 @@
       </c>
       <c r="E49" s="4" t="str">
         <f aca="false">SUBSTITUTE(SUBSTITUTE(C49," ",""),"&amp;","")</f>
-        <v>PHP</v>
+        <v>PHPBasics</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>95</v>
@@ -1824,10 +1829,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D50" s="4" t="str">
         <f aca="false">IF(A50=1,"-",IF(A50=2,LEFT(B50,2),IF(A50=3,LEFT(B50,3),IF(A50=4,LEFT(B50,4)))))</f>
